--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_7.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_7.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9959024581748631</v>
+        <v>0.94110283624764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8228047056157985</v>
+        <v>0.7059781994320424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8166044699270008</v>
+        <v>0.7388652316523801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9980513668053679</v>
+        <v>0.874231429249999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01705612723852094</v>
+        <v>0.2064646307757893</v>
       </c>
       <c r="G2" t="n">
-        <v>1.184905749456462</v>
+        <v>1.966125134243837</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6559951771873</v>
+        <v>0.9340639249155935</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01107918699887532</v>
+        <v>0.4442810178062843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3561795118342869</v>
+        <v>1.23064343210909</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1305991088733799</v>
+        <v>0.4543837923779735</v>
       </c>
       <c r="L2" t="n">
-        <v>1.262242676808761</v>
+        <v>0.919799606805297</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1326559142869227</v>
+        <v>0.4615398828907749</v>
       </c>
       <c r="N2" t="n">
-        <v>138.1424915419638</v>
+        <v>37.15525232157439</v>
       </c>
       <c r="O2" t="n">
-        <v>279.4776640851802</v>
+        <v>74.1198359098002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9961911178787214</v>
+        <v>0.9408720372353938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8226586320132048</v>
+        <v>0.7051929407414496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8160378433497141</v>
+        <v>0.7396169625826114</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998192042731319</v>
+        <v>0.8707050305806827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01585457351491088</v>
+        <v>0.2072736991555025</v>
       </c>
       <c r="G3" t="n">
-        <v>1.185882544309615</v>
+        <v>1.971376162723616</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6580219675993577</v>
+        <v>0.9313750269660195</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0102793572032283</v>
+        <v>0.456738120408721</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3510064115431371</v>
+        <v>1.24142420675438</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125914945558146</v>
+        <v>0.4552732137469791</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243768455761831</v>
+        <v>0.9194853272992597</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1278979800819193</v>
+        <v>0.4624433117572472</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2885945408894</v>
+        <v>37.14743028186977</v>
       </c>
       <c r="O3" t="n">
-        <v>279.6237670841058</v>
+        <v>74.11201387009559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9961240245225748</v>
+        <v>0.9408094611603014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.822542998192702</v>
+        <v>0.705094935786805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8159582431532943</v>
+        <v>0.7395426456011137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981641295213193</v>
+        <v>0.8712836178501057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01613385140105154</v>
+        <v>0.2074930602489108</v>
       </c>
       <c r="G4" t="n">
-        <v>1.186655788199761</v>
+        <v>1.972031522306595</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6583066928864663</v>
+        <v>0.9316408544996908</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01043806109587414</v>
+        <v>0.4546942445865178</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3536746319011672</v>
+        <v>1.239315502420885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1270190985680954</v>
+        <v>0.4555140615270957</v>
       </c>
       <c r="L4" t="n">
-        <v>1.248062430555215</v>
+        <v>0.9194001173246658</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1290195223980274</v>
+        <v>0.4626879526491413</v>
       </c>
       <c r="N4" t="n">
-        <v>138.2536712856156</v>
+        <v>37.14531476890846</v>
       </c>
       <c r="O4" t="n">
-        <v>279.588843828832</v>
+        <v>74.10989835713428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_3</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9962176760623119</v>
+        <v>0.9407873978125122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8225426368307928</v>
+        <v>0.7050717547048071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8158392871781703</v>
+        <v>0.7394941506415144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981815398139365</v>
+        <v>0.8715792262229169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01574402436669593</v>
+        <v>0.2075704035480569</v>
       </c>
       <c r="G5" t="n">
-        <v>1.186658204628512</v>
+        <v>1.972186534308654</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6587321915120214</v>
+        <v>0.9318143181582785</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01033907279569355</v>
+        <v>0.4536499996852559</v>
       </c>
       <c r="J5" t="n">
-        <v>0.349949049860577</v>
+        <v>1.238325223101002</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1254751942285643</v>
+        <v>0.4555989503368691</v>
       </c>
       <c r="L5" t="n">
-        <v>1.242068732012036</v>
+        <v>0.9193700736170379</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1274513031084867</v>
+        <v>0.4627741783728108</v>
       </c>
       <c r="N5" t="n">
-        <v>138.3025887819841</v>
+        <v>37.14456940530228</v>
       </c>
       <c r="O5" t="n">
-        <v>279.6377613252005</v>
+        <v>74.10915299352811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9971647349231337</v>
+        <v>0.9350663623668668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8221134545062058</v>
+        <v>0.6990978372914385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.816562108388257</v>
+        <v>0.7358809384501184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9978752661366262</v>
+        <v>0.8871837750270317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01180186657505322</v>
+        <v>0.227625553841997</v>
       </c>
       <c r="G6" t="n">
-        <v>1.189528148809228</v>
+        <v>2.012134147559211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6561467019551228</v>
+        <v>0.9447385686608216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01208042840489759</v>
+        <v>0.3985264916119967</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2856234252633373</v>
+        <v>1.179047320406259</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1086363961803466</v>
+        <v>0.4771011987429889</v>
       </c>
       <c r="L6" t="n">
-        <v>1.181456964919441</v>
+        <v>0.9115797274782867</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1103473108236322</v>
+        <v>0.4846150656969644</v>
       </c>
       <c r="N6" t="n">
-        <v>138.8789951513876</v>
+        <v>36.96010661560779</v>
       </c>
       <c r="O6" t="n">
-        <v>280.214167694604</v>
+        <v>73.92469020383361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9967446989190546</v>
+        <v>0.9360661226973509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8216177605447492</v>
+        <v>0.6986081436413217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8164546778567682</v>
+        <v>0.7374741780900784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9977095314686019</v>
+        <v>0.8821711151762592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01355027765566343</v>
+        <v>0.2241208834241552</v>
       </c>
       <c r="G7" t="n">
-        <v>1.192842856611949</v>
+        <v>2.015408731252373</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6565309747370787</v>
+        <v>0.9390396428500268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0130227326745245</v>
+        <v>0.4162338536909117</v>
       </c>
       <c r="J7" t="n">
-        <v>0.308312463777545</v>
+        <v>1.192973811566999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1164056598953136</v>
+        <v>0.4734140718484773</v>
       </c>
       <c r="L7" t="n">
-        <v>1.208339269180506</v>
+        <v>0.9129411032474566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1182389326756955</v>
+        <v>0.4808698702396388</v>
       </c>
       <c r="N7" t="n">
-        <v>138.602696481347</v>
+        <v>36.99113942909327</v>
       </c>
       <c r="O7" t="n">
-        <v>279.9378690245634</v>
+        <v>73.95572301731909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9963801404890972</v>
+        <v>0.9369894266848423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8214331029160535</v>
+        <v>0.6981270977840066</v>
       </c>
       <c r="D8" t="n">
-        <v>0.815895077629043</v>
+        <v>0.7399026387492257</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976730482153024</v>
+        <v>0.872760255527849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01506776185291671</v>
+        <v>0.2208842315257252</v>
       </c>
       <c r="G8" t="n">
-        <v>1.194077663025308</v>
+        <v>2.018625487115252</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6585326323041658</v>
+        <v>0.9303531798824964</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01323016257295025</v>
+        <v>0.4494779804079023</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3270657607408635</v>
+        <v>1.222154640890818</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1227508120254881</v>
+        <v>0.4699832247279952</v>
       </c>
       <c r="L8" t="n">
-        <v>1.231671008697781</v>
+        <v>0.9141983682517002</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1246840146090951</v>
+        <v>0.4773849907065981</v>
       </c>
       <c r="N8" t="n">
-        <v>138.3903955882018</v>
+        <v>37.02023310793242</v>
       </c>
       <c r="O8" t="n">
-        <v>279.7255681314182</v>
+        <v>73.98481669615825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9973766607066996</v>
+        <v>0.9353280764930029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8211783348106756</v>
+        <v>0.697981379698067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8175445682336813</v>
+        <v>0.7369324359349925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976820269920856</v>
+        <v>0.8836989293528578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01091971984321295</v>
+        <v>0.2267081122034034</v>
       </c>
       <c r="G9" t="n">
-        <v>1.195781298519069</v>
+        <v>2.0195999046269</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6526325000543355</v>
+        <v>0.940977423126754</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0131791126640824</v>
+        <v>0.4108368070889643</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2609979973359673</v>
+        <v>1.187935801342708</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1044974633338673</v>
+        <v>0.4761387530997697</v>
       </c>
       <c r="L9" t="n">
-        <v>1.167893714771225</v>
+        <v>0.9119361041606847</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1061431939222358</v>
+        <v>0.4836374624969571</v>
       </c>
       <c r="N9" t="n">
-        <v>139.0343699287558</v>
+        <v>36.96818387647711</v>
       </c>
       <c r="O9" t="n">
-        <v>280.3695424719722</v>
+        <v>73.93276746470292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9979340922497207</v>
+        <v>0.9356246261090159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8207238519958318</v>
+        <v>0.6967208454736571</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8169416427702447</v>
+        <v>0.7386538569872766</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9974936129489064</v>
+        <v>0.8778048255311774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008599396163731192</v>
+        <v>0.2256685543864215</v>
       </c>
       <c r="G10" t="n">
-        <v>1.19882042719463</v>
+        <v>2.028029102789755</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6547891294774209</v>
+        <v>0.9348199998364614</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01425036323260837</v>
+        <v>0.4316578948164961</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2182888332769347</v>
+        <v>1.204560726395526</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09273292923083576</v>
+        <v>0.475045844510213</v>
       </c>
       <c r="L10" t="n">
-        <v>1.132218096017873</v>
+        <v>0.9123399164037663</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09419338016730107</v>
+        <v>0.4825273416896227</v>
       </c>
       <c r="N10" t="n">
-        <v>139.5121265834148</v>
+        <v>36.97737585938561</v>
       </c>
       <c r="O10" t="n">
-        <v>280.8472991266312</v>
+        <v>73.94195944761142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9977466421221318</v>
+        <v>0.935466032800425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8207100070812421</v>
+        <v>0.6966195456305917</v>
       </c>
       <c r="D11" t="n">
-        <v>0.817529668604515</v>
+        <v>0.7384489521745785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.997351808477575</v>
+        <v>0.8785142901033796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009379662324144437</v>
+        <v>0.2262245049079001</v>
       </c>
       <c r="G11" t="n">
-        <v>1.198913008202241</v>
+        <v>2.028706495306777</v>
       </c>
       <c r="H11" t="n">
-        <v>0.652685795163933</v>
+        <v>0.9355529324704189</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01505660950793806</v>
+        <v>0.4291516912367319</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2295356225024201</v>
+        <v>1.20246399783802</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09684865680093058</v>
+        <v>0.4756306391601577</v>
       </c>
       <c r="L11" t="n">
-        <v>1.144214904183563</v>
+        <v>0.9121239595580255</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09837392633240671</v>
+        <v>0.4831213462707238</v>
       </c>
       <c r="N11" t="n">
-        <v>139.3384230323403</v>
+        <v>36.97245477648306</v>
       </c>
       <c r="O11" t="n">
-        <v>280.6735955755568</v>
+        <v>73.93703836470888</v>
       </c>
     </row>
   </sheetData>
